--- a/Esercitazione5/Tabelle_Strategia5.xlsx
+++ b/Esercitazione5/Tabelle_Strategia5.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Universita\Informatica\Magistrale\Anno_2\Metodi_Numerici\MNI_Esercizi\Esercitazione5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5823DF2A-DE98-4E3C-96F2-57DE32E96030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C93CDF-1814-4472-95F8-D1AA83C0543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BFBD3147-2A7D-4227-A28A-85E78CD98EEF}"/>
+    <workbookView xWindow="8580" yWindow="2310" windowWidth="18420" windowHeight="14595" xr2:uid="{BFBD3147-2A7D-4227-A28A-85E78CD98EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$A$1:$N$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$A$1:$K$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -164,7 +164,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -380,41 +380,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -440,6 +439,119 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -496,7 +608,82 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -553,7 +740,7 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -573,194 +760,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1994,10 +1993,10 @@
   <autoFilter ref="A4:E9" xr:uid="{4E8EAE86-35EF-40E4-8F6A-DC829CA6BAD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9CE7409C-9FD7-40C6-A901-36AE6042D98A}" name="N" dataDxfId="18" dataCellStyle="Normale 2"/>
-    <tableColumn id="2" xr3:uid="{13DE7A79-7070-4C61-B0B4-67BF4545DD1D}" name="Tempo Sequenziale (ms)" dataDxfId="3" dataCellStyle="Normale 2"/>
-    <tableColumn id="3" xr3:uid="{17265080-3ADC-41B0-B2D5-F55D2E6BBF73}" name="Tempo Parallelo (ms) - GPU" dataDxfId="17" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" xr3:uid="{E0CF3EB7-8226-48CA-99DC-CFABC2375EAD}" name="Tempo Parallelo (ms) - CPU" dataDxfId="6" dataCellStyle="Normale 2"/>
-    <tableColumn id="5" xr3:uid="{B56FB859-0842-47D4-93CC-36F8C1327EF7}" name="Tempo Parallelo - Tot" dataDxfId="0" dataCellStyle="Normale 2">
+    <tableColumn id="2" xr3:uid="{13DE7A79-7070-4C61-B0B4-67BF4545DD1D}" name="Tempo Sequenziale (ms)" dataDxfId="17" dataCellStyle="Normale 2"/>
+    <tableColumn id="3" xr3:uid="{17265080-3ADC-41B0-B2D5-F55D2E6BBF73}" name="Tempo Parallelo (ms) - GPU" dataDxfId="16" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" xr3:uid="{E0CF3EB7-8226-48CA-99DC-CFABC2375EAD}" name="Tempo Parallelo (ms) - CPU" dataDxfId="15" dataCellStyle="Normale 2"/>
+    <tableColumn id="5" xr3:uid="{B56FB859-0842-47D4-93CC-36F8C1327EF7}" name="Tempo Parallelo - Tot" dataDxfId="14" dataCellStyle="Normale 2">
       <calculatedColumnFormula>C5+D5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2006,14 +2005,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C0800F2-F649-4681-9562-C8F8723CBEE5}" name="Tabella3" displayName="Tabella3" ref="A12:E17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Normale 2" dataCellStyle="Normale 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C0800F2-F649-4681-9562-C8F8723CBEE5}" name="Tabella3" displayName="Tabella3" ref="A12:E17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normale 2" dataCellStyle="Normale 2">
   <autoFilter ref="A12:E17" xr:uid="{0C0800F2-F649-4681-9562-C8F8723CBEE5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DD77DCF3-7B3C-424D-AB24-056B3D96D06B}" name="N" dataDxfId="9" dataCellStyle="Normale 2"/>
-    <tableColumn id="2" xr3:uid="{6D48C247-354E-4999-92A8-E201A56A4A60}" name="Tempo Sequenziale (ms)" dataDxfId="2" dataCellStyle="Normale 2"/>
-    <tableColumn id="3" xr3:uid="{40B22ACC-D6B6-4C83-87DB-157D79EA3E29}" name="Tempo Parallelo (ms) - GPU" dataDxfId="14" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" xr3:uid="{1162417A-D011-4CAF-8580-1C0606EE9D3D}" name="Tempo Parallelo (ms) - CPU" dataDxfId="5" dataCellStyle="Normale 2"/>
-    <tableColumn id="5" xr3:uid="{07478BCC-5794-4FBF-A66E-4EE345703A7D}" name="Tempo Parallelo - Tot" dataDxfId="4" dataCellStyle="Normale 2">
+    <tableColumn id="1" xr3:uid="{DD77DCF3-7B3C-424D-AB24-056B3D96D06B}" name="N" dataDxfId="11" dataCellStyle="Normale 2"/>
+    <tableColumn id="2" xr3:uid="{6D48C247-354E-4999-92A8-E201A56A4A60}" name="Tempo Sequenziale (ms)" dataDxfId="10" dataCellStyle="Normale 2"/>
+    <tableColumn id="3" xr3:uid="{40B22ACC-D6B6-4C83-87DB-157D79EA3E29}" name="Tempo Parallelo (ms) - GPU" dataDxfId="9" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" xr3:uid="{1162417A-D011-4CAF-8580-1C0606EE9D3D}" name="Tempo Parallelo (ms) - CPU" dataDxfId="8" dataCellStyle="Normale 2"/>
+    <tableColumn id="5" xr3:uid="{07478BCC-5794-4FBF-A66E-4EE345703A7D}" name="Tempo Parallelo - Tot" dataDxfId="7" dataCellStyle="Normale 2">
       <calculatedColumnFormula>C13+D13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2022,14 +2021,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EF0A246F-1383-4A2E-B7A7-DDCB78E4C973}" name="Tabella4" displayName="Tabella4" ref="A20:E25" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normale 2" dataCellStyle="Normale 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EF0A246F-1383-4A2E-B7A7-DDCB78E4C973}" name="Tabella4" displayName="Tabella4" ref="A20:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normale 2" dataCellStyle="Normale 2">
   <autoFilter ref="A20:E25" xr:uid="{EF0A246F-1383-4A2E-B7A7-DDCB78E4C973}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E3D4075C-ED1E-4F7A-87BF-563F428D477D}" name="N" dataDxfId="8" dataCellStyle="Normale 2"/>
-    <tableColumn id="2" xr3:uid="{64B54B93-62C2-4269-A303-2C6BAFA09D98}" name="Tempo Sequenziale (ms)" dataDxfId="7" dataCellStyle="Normale 2"/>
-    <tableColumn id="3" xr3:uid="{ECF11607-46CC-413B-AA42-D23F7977D6A3}" name="Tempo Parallelo (ms) - GPU" dataDxfId="11" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" xr3:uid="{91C5B08A-33CD-4A9C-9DD9-6D5283403DE7}" name="Tempo Parallelo (ms) - CPU" dataDxfId="10" dataCellStyle="Normale 2"/>
-    <tableColumn id="5" xr3:uid="{4176E5B7-4885-4BF1-9460-4E907A1EC96A}" name="Tempo Parallelo - Tot" dataDxfId="1" dataCellStyle="Normale 2">
+    <tableColumn id="1" xr3:uid="{E3D4075C-ED1E-4F7A-87BF-563F428D477D}" name="N" dataDxfId="4" dataCellStyle="Normale 2"/>
+    <tableColumn id="2" xr3:uid="{64B54B93-62C2-4269-A303-2C6BAFA09D98}" name="Tempo Sequenziale (ms)" dataDxfId="3" dataCellStyle="Normale 2"/>
+    <tableColumn id="3" xr3:uid="{ECF11607-46CC-413B-AA42-D23F7977D6A3}" name="Tempo Parallelo (ms) - GPU" dataDxfId="2" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" xr3:uid="{91C5B08A-33CD-4A9C-9DD9-6D5283403DE7}" name="Tempo Parallelo (ms) - CPU" dataDxfId="1" dataCellStyle="Normale 2"/>
+    <tableColumn id="5" xr3:uid="{4176E5B7-4885-4BF1-9460-4E907A1EC96A}" name="Tempo Parallelo - Tot" dataDxfId="0" dataCellStyle="Normale 2">
       <calculatedColumnFormula>C21+D21</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2347,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3725E956-6166-4304-922D-C2C0C8EF654E}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -2365,35 +2364,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I4" t="s">
@@ -2416,18 +2415,18 @@
       <c r="D5" s="2">
         <v>2.8965000000000001</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E9" si="0">C5+D5</f>
         <v>3.2671000000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>B5/E5</f>
         <v>0.95929111444400228</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2438,17 +2437,17 @@
       <c r="B6" s="2">
         <v>5.7156000000000002</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>0.4587</v>
       </c>
       <c r="D6" s="2">
         <v>5.4699</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>5.9286000000000003</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f>B6/E6</f>
         <v>0.96407246230138643</v>
       </c>
@@ -2472,11 +2471,11 @@
       <c r="D7" s="2">
         <v>11.491899999999999</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>11.9834</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>B7/E7</f>
         <v>0.96766360131515272</v>
       </c>
@@ -2494,17 +2493,17 @@
       <c r="B8" s="2">
         <v>22.204499999999999</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>0.58430000000000004</v>
       </c>
       <c r="D8" s="2">
         <v>23.480699999999999</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="7">
         <f>23.4807</f>
         <v>23.480699999999999</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f>B8/E8</f>
         <v>0.94564897980043183</v>
       </c>
@@ -2528,11 +2527,11 @@
       <c r="D9" s="2">
         <v>45.453200000000002</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>46.2774</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f>B9/E9</f>
         <v>0.96078431372549022</v>
       </c>
@@ -2554,30 +2553,30 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I12" t="s">
@@ -2600,11 +2599,11 @@
       <c r="D13" s="2">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="7">
         <f t="shared" ref="E13:E17" si="1">C13+D13</f>
         <v>0.42170000000000002</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <f>B13/E13</f>
         <v>7.4320607066635045</v>
       </c>
@@ -2628,11 +2627,11 @@
       <c r="D14" s="2">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>0.63880000000000003</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <f>B14/E14</f>
         <v>8.9474013775829686</v>
       </c>
@@ -2656,11 +2655,11 @@
       <c r="D15" s="2">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>0.77910000000000001</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <f>B15/E15</f>
         <v>14.88371197535618</v>
       </c>
@@ -2684,11 +2683,11 @@
       <c r="D16" s="2">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>1.2361</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <f>B16/E16</f>
         <v>17.963352479572851</v>
       </c>
@@ -2706,17 +2705,17 @@
       <c r="B17" s="2">
         <v>44.462600000000002</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>2.0108999999999999</v>
       </c>
       <c r="D17" s="2">
         <v>0.1124</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>2.1233</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f>B17/E17</f>
         <v>20.940328733575097</v>
       </c>
@@ -2734,12 +2733,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="I19" t="s">
         <v>23</v>
       </c>
@@ -2751,19 +2750,19 @@
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I20" t="s">
@@ -2783,14 +2782,14 @@
       <c r="C21" s="2">
         <v>0.40410000000000001</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="7">
         <f t="shared" ref="E21:E25" si="2">C21+D21</f>
         <v>0.41300000000000003</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <f>B21/E21</f>
         <v>7.5886198547215491</v>
       </c>
@@ -2811,14 +2810,14 @@
       <c r="C22" s="2">
         <v>0.44190000000000002</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="7">
         <v>2.3E-2</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="7">
         <f>C22+D22</f>
         <v>0.46490000000000004</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <f>B22/E22</f>
         <v>12.294256829425683</v>
       </c>
@@ -2839,14 +2838,14 @@
       <c r="C23" s="2">
         <v>0.58230000000000004</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="7">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="7">
         <f t="shared" si="2"/>
         <v>0.61460000000000004</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="18">
         <f>B23/E23</f>
         <v>18.867393426618939</v>
       </c>
@@ -2867,14 +2866,14 @@
       <c r="C24" s="2">
         <v>0.80989999999999995</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="7">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="7">
         <f t="shared" si="2"/>
         <v>0.87229999999999996</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <f>B24/E24</f>
         <v>25.455118651839964</v>
       </c>
@@ -2889,14 +2888,14 @@
       <c r="C25" s="2">
         <v>1.2887999999999999</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="7">
         <v>0.11559999999999999</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="7">
         <f t="shared" si="2"/>
         <v>1.4043999999999999</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="20">
         <f>B25/E25</f>
         <v>31.659498718313873</v>
       </c>
@@ -2932,10 +2931,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="I28" t="s">
         <v>31</v>
       </c>
